--- a/src/test/resources/testscript (1).xlsx
+++ b/src/test/resources/testscript (1).xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Animal" sheetId="1" r:id="rId1"/>
     <sheet name="NormalTicket" sheetId="4" r:id="rId2"/>
-    <sheet name="Search" sheetId="3" r:id="rId3"/>
-    <sheet name="SearchF" sheetId="5" r:id="rId4"/>
-    <sheet name="logindata" sheetId="6" r:id="rId5"/>
+    <sheet name="report" sheetId="7" r:id="rId3"/>
+    <sheet name="Search" sheetId="3" r:id="rId4"/>
+    <sheet name="SearchF" sheetId="5" r:id="rId5"/>
+    <sheet name="logindata" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -149,6 +150,12 @@
   </si>
   <si>
     <t>2500</t>
+  </si>
+  <si>
+    <t>NormalpeoplereportTest1</t>
+  </si>
+  <si>
+    <t>tiger-traffic-jam.jpg</t>
   </si>
 </sst>
 </file>
@@ -635,7 +642,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +653,9 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="19.42578125" customWidth="1"/>
@@ -736,7 +745,9 @@
       <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1211,6 +1222,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1292,7 +1332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1363,7 +1403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
